--- a/InventorModel/YAxis/YAxisMotorLeft BOM.xlsx
+++ b/InventorModel/YAxis/YAxisMotorLeft BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="27795" windowHeight="14895"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="21075" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\Electronics\Motors\StepperMotorNema17x48mm.ipt</t>
+            <family val="2"/>
+          </rPr>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\YAxis\YAxisMotor\YMotorBlockLeft.ipt</t>
         </r>
       </text>
     </comment>
@@ -43,9 +43,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\Electronics\EndStops\EndStopOptical.ipt</t>
+            <family val="2"/>
+          </rPr>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\YAxis\YAxisMotor\YMotorCapLeft.ipt</t>
         </r>
       </text>
     </comment>
@@ -57,9 +57,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\Hardware\Bolts\SHCS\SHCS4\SHCS4x30.ipt</t>
+            <family val="2"/>
+          </rPr>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\Hardware\Bolts\SHCS\SHCS4\SHCS4x30.ipt</t>
         </r>
       </text>
     </comment>
@@ -71,9 +71,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\Hardware\Bolts\SHCS\SHCS3\SHCS3x8.ipt</t>
+            <family val="2"/>
+          </rPr>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\Hardware\Bolts\SHCS\SHCS3\SHCS3x8.ipt</t>
         </r>
       </text>
     </comment>
@@ -85,9 +85,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\Hardware\Bearing\BearingRadialBall\BearingRadialBallF624zz.ipt</t>
+            <family val="2"/>
+          </rPr>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\Hardware\Bearing\BearingRadialBall\BearingRadialBallF624zz.ipt</t>
         </r>
       </text>
     </comment>
@@ -99,9 +99,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\Hardware\Wahsers\M4Washer.ipt</t>
+            <family val="2"/>
+          </rPr>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\Hardware\Wahsers\M4Washer.ipt</t>
         </r>
       </text>
     </comment>
@@ -113,9 +113,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\Hardware\Nuts\Nut4.ipt</t>
+            <family val="2"/>
+          </rPr>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\Hardware\Nuts\Nut4.ipt</t>
         </r>
       </text>
     </comment>
@@ -127,9 +127,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\Hardware\Bolts\SHCS\SHCS4\SHCS4x15.ipt</t>
+            <family val="2"/>
+          </rPr>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\Hardware\Bolts\SHCS\SHCS4\SHCS4x15.ipt</t>
         </r>
       </text>
     </comment>
@@ -141,9 +141,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\Hardware\Belt\PulleyGT2x36x5Bore.ipt</t>
+            <family val="2"/>
+          </rPr>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\YAxis\YAxisBearingSpacer.ipt</t>
         </r>
       </text>
     </comment>
@@ -155,9 +155,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\Hardware\Belt\GT2Idler.iam</t>
+            <family val="2"/>
+          </rPr>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\Electronics\Motors\StepperMotorNema17x48mm.ipt</t>
         </r>
       </text>
     </comment>
@@ -169,9 +169,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\Hardware\Bolts\FHS\FHS4\FHS4x8.ipt</t>
+            <family val="2"/>
+          </rPr>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\Hardware\Belt\PulleyGT2x36x5Bore.ipt</t>
         </r>
       </text>
     </comment>
@@ -183,9 +183,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\Hardware\Bolts\SHCS\SHCS4\SHCS4x8.ipt</t>
+            <family val="2"/>
+          </rPr>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\Hardware\Belt\GT2Idler.iam</t>
         </r>
       </text>
     </comment>
@@ -197,9 +197,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\Hardware\BoltWashers\BoltWasher3\BoltWasher3x10.iam</t>
+            <family val="2"/>
+          </rPr>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\Hardware\Bolts\FHS\FHS4\FHS4x8.ipt</t>
         </r>
       </text>
     </comment>
@@ -211,9 +211,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\Hardware\Nuts\Nut3.ipt</t>
+            <family val="2"/>
+          </rPr>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\Hardware\Bolts\SHCS\SHCS4\SHCS4x8.ipt</t>
         </r>
       </text>
     </comment>
@@ -225,9 +225,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\YAxis\YAxisMotor\YMotorBlockLeft.ipt</t>
+            <family val="2"/>
+          </rPr>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\YAxis\YAxisBeltIdlerSpacer.ipt</t>
         </r>
       </text>
     </comment>
@@ -239,9 +239,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\YAxis\YAxisMotor\YMotorCapLeft.ipt</t>
+            <family val="2"/>
+          </rPr>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\Electronics\EndStops\EndStopOptical.ipt</t>
         </r>
       </text>
     </comment>
@@ -253,9 +253,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\YAxis\YAxisBearingSpacer.ipt</t>
+            <family val="2"/>
+          </rPr>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\Hardware\BoltWashers\BoltWasher3\BoltWasher3x10.iam</t>
         </r>
       </text>
     </comment>
@@ -267,9 +267,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\YAxis\YAxisBeltIdlerSpacer.ipt</t>
+            <family val="2"/>
+          </rPr>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\Hardware\Nuts\Nut3.ipt</t>
         </r>
       </text>
     </comment>
@@ -278,11 +278,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="76">
   <si>
     <t>PART PREVIEW</t>
   </si>
   <si>
+    <t>PART NUMBER</t>
+  </si>
+  <si>
     <t>QUANTITY</t>
   </si>
   <si>
@@ -295,9 +298,6 @@
     <t>TITLE</t>
   </si>
   <si>
-    <t>AUTHOR</t>
-  </si>
-  <si>
     <t>CATEGORY</t>
   </si>
   <si>
@@ -316,21 +316,30 @@
     <t>Hover here for image</t>
   </si>
   <si>
+    <t>YMotorBlockLeft</t>
+  </si>
+  <si>
     <t>Y Motor Block Left</t>
   </si>
   <si>
-    <t>Jack; Zelogik</t>
-  </si>
-  <si>
     <t>Print</t>
   </si>
   <si>
     <t>Jack</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>YMotorCapLeft</t>
+  </si>
+  <si>
     <t>Y Motor Cap Left</t>
   </si>
   <si>
+    <t>SHCS4x30</t>
+  </si>
+  <si>
     <t>SHCS 4x30</t>
   </si>
   <si>
@@ -346,12 +355,18 @@
     <t>http://us.misumi-ec.com/vona2/detail/110300239070/</t>
   </si>
   <si>
+    <t>SHCS3x8</t>
+  </si>
+  <si>
     <t>SHCS 3x8</t>
   </si>
   <si>
     <t>CB3-8</t>
   </si>
   <si>
+    <t>F624zz-bearing</t>
+  </si>
+  <si>
     <t>Bearing Radial Ball Flanged</t>
   </si>
   <si>
@@ -361,6 +376,9 @@
     <t>http://us.misumi-ec.com/vona2/detail/110300107650/</t>
   </si>
   <si>
+    <t>M4Washer</t>
+  </si>
+  <si>
     <t>M4 Washer</t>
   </si>
   <si>
@@ -370,6 +388,9 @@
     <t>http://us.misumi-ec.com/vona2/detail/110300252910/</t>
   </si>
   <si>
+    <t>M4Nut</t>
+  </si>
+  <si>
     <t>M4 Nut</t>
   </si>
   <si>
@@ -379,15 +400,24 @@
     <t>http://us.misumi-ec.com/vona2/detail/110300250540/</t>
   </si>
   <si>
+    <t>SHCS4x15</t>
+  </si>
+  <si>
     <t>SHCS 4x15</t>
   </si>
   <si>
     <t>CB4-15</t>
   </si>
   <si>
+    <t>YAxisBearingSpacer</t>
+  </si>
+  <si>
     <t>Y Axis Bearing Spacer</t>
   </si>
   <si>
+    <t>StepperMotorNema17x48mm</t>
+  </si>
+  <si>
     <t>Stepper Motor</t>
   </si>
   <si>
@@ -400,6 +430,9 @@
     <t>http://us.misumi-ec.com/vona2/detail/110302499550/</t>
   </si>
   <si>
+    <t>PulleyGT2x36x5Bore</t>
+  </si>
+  <si>
     <t>Pulley GT2 36T 5mm Bore</t>
   </si>
   <si>
@@ -409,24 +442,42 @@
     <t>http://us.misumi-ec.com/vona2/detail/110302193470</t>
   </si>
   <si>
+    <t>GT2Idler</t>
+  </si>
+  <si>
     <t>GT2 Toothed Idler</t>
   </si>
   <si>
+    <t>FHS4x8</t>
+  </si>
+  <si>
     <t>FHS 4x8</t>
   </si>
   <si>
     <t>HFBCM4-8</t>
   </si>
   <si>
+    <t>http://us.misumi-ec.com/vona2/detail/110300463610/</t>
+  </si>
+  <si>
+    <t>SHCS4x8</t>
+  </si>
+  <si>
     <t>SHCS 4x8</t>
   </si>
   <si>
     <t>CB4-8</t>
   </si>
   <si>
+    <t>YAxisBeltIdlerSpacer</t>
+  </si>
+  <si>
     <t>Y Axis Belt Idler Spacer</t>
   </si>
   <si>
+    <t>EndStopOptical</t>
+  </si>
+  <si>
     <t>End Stop Optical</t>
   </si>
   <si>
@@ -436,9 +487,15 @@
     <t>http://www.robotdigg.com/product/155/Optical-Endstop-w/-Lead-Wires-for-3D-Printers</t>
   </si>
   <si>
+    <t>BoltWasher3x10</t>
+  </si>
+  <si>
     <t>Bolt + Washer 3x10</t>
   </si>
   <si>
+    <t>M3Nut</t>
+  </si>
+  <si>
     <t>M3 Nut</t>
   </si>
   <si>
@@ -448,7 +505,7 @@
     <t xml:space="preserve">ASSEMBLY PARTS TOTAL = </t>
   </si>
   <si>
-    <t>File created: 2/2/2015 21:27:49</t>
+    <t>File created: 19/3/2015 8:18:00</t>
   </si>
 </sst>
 </file>
@@ -495,7 +552,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -890,17 +947,17 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
@@ -947,485 +1004,489 @@
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
-        <v>53</v>
-      </c>
       <c r="D2" s="4">
-        <f>SUM(B2*C2)</f>
-        <v>53</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <f>SUM(C2*D2)</f>
+        <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="4">
-        <v>2</v>
-      </c>
       <c r="D3" s="4">
-        <f>SUM(B3*C3)</f>
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>49</v>
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <f>SUM(C3*D3)</f>
+        <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="C4" s="4">
+      <c r="D4" s="4">
         <v>0.26</v>
       </c>
-      <c r="D4" s="4">
-        <f>SUM(B4*C4)</f>
+      <c r="E4" s="4">
+        <f>SUM(C4*D4)</f>
         <v>0.78</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3">
         <v>4</v>
       </c>
-      <c r="C5" s="4">
+      <c r="D5" s="4">
         <v>0.26</v>
       </c>
-      <c r="D5" s="4">
-        <f>SUM(B5*C5)</f>
+      <c r="E5" s="4">
+        <f>SUM(C5*D5)</f>
         <v>1.04</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="K5" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="3">
         <v>4</v>
       </c>
-      <c r="C6" s="4">
+      <c r="D6" s="4">
         <v>6.9</v>
       </c>
-      <c r="D6" s="4">
-        <f>SUM(B6*C6)</f>
+      <c r="E6" s="4">
+        <f>SUM(C6*D6)</f>
         <v>27.6</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="3">
         <v>6</v>
       </c>
-      <c r="C7" s="4">
+      <c r="D7" s="4">
         <v>0.16</v>
       </c>
-      <c r="D7" s="4">
-        <f>SUM(B7*C7)</f>
+      <c r="E7" s="4">
+        <f>SUM(C7*D7)</f>
         <v>0.96</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="3">
         <v>7</v>
       </c>
-      <c r="C8" s="4">
+      <c r="D8" s="4">
         <v>0.56989999999999996</v>
       </c>
-      <c r="D8" s="4">
-        <f>SUM(B8*C8)</f>
+      <c r="E8" s="4">
+        <f>SUM(C8*D8)</f>
         <v>3.9892999999999996</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="3">
         <v>4</v>
       </c>
-      <c r="C9" s="4">
+      <c r="D9" s="4">
         <v>0.26</v>
       </c>
-      <c r="D9" s="4">
-        <f>SUM(B9*C9)</f>
+      <c r="E9" s="4">
+        <f>SUM(C9*D9)</f>
         <v>1.04</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4">
-        <v>15.4</v>
+      <c r="B10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
       </c>
       <c r="D10" s="4">
-        <f>SUM(B10*C10)</f>
-        <v>15.4</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <f>SUM(C10*D10)</f>
+        <v>0</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="K10" s="2" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="3">
         <v>1</v>
       </c>
-      <c r="C11" s="4">
-        <v>6.86</v>
-      </c>
       <c r="D11" s="4">
-        <f>SUM(B11*C11)</f>
-        <v>6.86</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
+      </c>
+      <c r="E11" s="4">
+        <f>SUM(C11*D11)</f>
+        <v>53</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="J11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
-        <v>2</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0.35</v>
+      <c r="B12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
       </c>
       <c r="D12" s="4">
-        <f>SUM(B12*C12)</f>
-        <v>0.7</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>44</v>
+        <v>15.4</v>
+      </c>
+      <c r="E12" s="4">
+        <f>SUM(C12*D12)</f>
+        <v>15.4</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3">
-        <v>2</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0.26</v>
+      <c r="B13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
       </c>
       <c r="D13" s="4">
-        <f>SUM(B13*C13)</f>
-        <v>0.52</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>46</v>
+        <v>6.86</v>
+      </c>
+      <c r="E13" s="4">
+        <f>SUM(C13*D13)</f>
+        <v>6.86</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H13" s="2"/>
-      <c r="I13" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="3">
         <v>2</v>
       </c>
-      <c r="C14" s="4">
-        <v>0.42</v>
-      </c>
       <c r="D14" s="4">
-        <f>SUM(B14*C14)</f>
-        <v>0.84</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>52</v>
+        <v>0.35</v>
+      </c>
+      <c r="E14" s="4">
+        <f>SUM(C14*D14)</f>
+        <v>0.7</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="J14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="3">
         <v>2</v>
       </c>
-      <c r="C15" s="4">
-        <v>0.56989999999999996</v>
-      </c>
       <c r="D15" s="4">
-        <f>SUM(B15*C15)</f>
-        <v>1.1397999999999999</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>53</v>
+        <v>0.26</v>
+      </c>
+      <c r="E15" s="4">
+        <f>SUM(C15*D15)</f>
+        <v>0.52</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="3">
         <v>1</v>
       </c>
-      <c r="C16" s="4">
+      <c r="D16" s="4">
         <v>0</v>
       </c>
-      <c r="D16" s="4">
-        <f>SUM(B16*C16)</f>
+      <c r="E16" s="4">
+        <f>SUM(C16*D16)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="F16" s="2" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>14</v>
@@ -1435,114 +1496,121 @@
       <c r="J16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="2"/>
+      <c r="K16" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="3">
         <v>1</v>
       </c>
-      <c r="C17" s="4">
-        <v>0</v>
-      </c>
       <c r="D17" s="4">
-        <f>SUM(B17*C17)</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>16</v>
+        <v>2</v>
+      </c>
+      <c r="E17" s="4">
+        <f>SUM(C17*D17)</f>
+        <v>2</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K17" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="3">
         <v>2</v>
       </c>
-      <c r="C18" s="4">
-        <v>0</v>
-      </c>
       <c r="D18" s="4">
-        <f>SUM(B18*C18)</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>35</v>
+        <v>0.42</v>
+      </c>
+      <c r="E18" s="4">
+        <f>SUM(C18*D18)</f>
+        <v>0.84</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K18" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="3">
-        <v>1</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0</v>
+      <c r="B19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2</v>
       </c>
       <c r="D19" s="4">
-        <f>SUM(B19*C19)</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>48</v>
+        <v>0.56989999999999996</v>
+      </c>
+      <c r="E19" s="4">
+        <f>SUM(C19*D19)</f>
+        <v>1.1397999999999999</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="I19" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="J19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K19" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C20" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="6">
-        <f>SUM(D2:D19)</f>
+      <c r="D20" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="6">
+        <f>SUM(E2:E19)</f>
         <v>115.8691</v>
       </c>
-      <c r="E20" t="s">
-        <v>56</v>
+      <c r="F20" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:L19">
-    <sortCondition ref="G2:G19"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
